--- a/data_raw/CME_ETH_Future_latest.xlsx
+++ b/data_raw/CME_ETH_Future_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7236,15 +7236,11 @@
           <t>4246.50</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>4228.50</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>-128.00</t>
-        </is>
+      <c r="G142" t="n">
+        <v>4228.5</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-128</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -7288,15 +7284,11 @@
           <t>4277.00A</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>4255.00</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>-130.00</t>
-        </is>
+      <c r="G143" t="n">
+        <v>4255</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-130</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -7340,15 +7332,11 @@
           <t>4306.00B</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>4297.50</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>-127.50</t>
-        </is>
+      <c r="G144" t="n">
+        <v>4297.5</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-127.5</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -7392,15 +7380,11 @@
           <t>4316.50A</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>4328.50</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>-126.50</t>
-        </is>
+      <c r="G145" t="n">
+        <v>4328.5</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-126.5</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -7444,15 +7428,11 @@
           <t>4345.50A</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>4358.00</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>-127.00</t>
-        </is>
+      <c r="G146" t="n">
+        <v>4358</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-127</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -7496,15 +7476,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>4383.50</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>-127.00</t>
-        </is>
+      <c r="G147" t="n">
+        <v>4383.5</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-127</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -7548,15 +7524,11 @@
           <t>4431.00A</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>4424.00</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>-131.00</t>
-        </is>
+      <c r="G148" t="n">
+        <v>4424</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-131</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -7600,15 +7572,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>4508.00</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>-133.50</t>
-        </is>
+      <c r="G149" t="n">
+        <v>4508</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-133.5</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -7652,15 +7620,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>4592.50</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>-135.50</t>
-        </is>
+      <c r="G150" t="n">
+        <v>4592.5</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-135.5</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -7704,15 +7668,11 @@
           <t>4802.50A</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>4675.50</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>-138.50</t>
-        </is>
+      <c r="G151" t="n">
+        <v>4675.5</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-138.5</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -7756,15 +7716,11 @@
           <t>4858.50B</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>4848.00</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>+619.50</t>
-        </is>
+      <c r="G152" t="n">
+        <v>4848</v>
+      </c>
+      <c r="H152" t="n">
+        <v>619.5</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -7808,15 +7764,11 @@
           <t>4894.00B</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>4883.00</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>+628.00</t>
-        </is>
+      <c r="G153" t="n">
+        <v>4883</v>
+      </c>
+      <c r="H153" t="n">
+        <v>628</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -7860,15 +7812,11 @@
           <t>4926.00B</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>4932.50</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>+635.00</t>
-        </is>
+      <c r="G154" t="n">
+        <v>4932.5</v>
+      </c>
+      <c r="H154" t="n">
+        <v>635</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -7912,15 +7860,11 @@
           <t>4985.50A</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>4964.50</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>+636.00</t>
-        </is>
+      <c r="G155" t="n">
+        <v>4964.5</v>
+      </c>
+      <c r="H155" t="n">
+        <v>636</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -7964,15 +7908,11 @@
           <t>5001.00B</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>4994.00</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>+636.00</t>
-        </is>
+      <c r="G156" t="n">
+        <v>4994</v>
+      </c>
+      <c r="H156" t="n">
+        <v>636</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -8016,15 +7956,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>5019.50</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>+636.00</t>
-        </is>
+      <c r="G157" t="n">
+        <v>5019.5</v>
+      </c>
+      <c r="H157" t="n">
+        <v>636</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -8068,15 +8004,11 @@
           <t>5081.00B</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>5059.00</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>+635.00</t>
-        </is>
+      <c r="G158" t="n">
+        <v>5059</v>
+      </c>
+      <c r="H158" t="n">
+        <v>635</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -8120,15 +8052,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>5155.50</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>+647.50</t>
-        </is>
+      <c r="G159" t="n">
+        <v>5155.5</v>
+      </c>
+      <c r="H159" t="n">
+        <v>647.5</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -8172,15 +8100,11 @@
           <t>4945.00B</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>5252.00</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>+659.50</t>
-        </is>
+      <c r="G160" t="n">
+        <v>5252</v>
+      </c>
+      <c r="H160" t="n">
+        <v>659.5</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -8224,15 +8148,11 @@
           <t>5034.50B</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>5347.00</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>+671.50</t>
-        </is>
+      <c r="G161" t="n">
+        <v>5347</v>
+      </c>
+      <c r="H161" t="n">
+        <v>671.5</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -8240,6 +8160,2658 @@
         </is>
       </c>
       <c r="J161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>AUG 25</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>4814.00</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>4814.00</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>4343.00</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4356.00</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>4428.50</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>-419.50</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>28,682</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>16,705</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>4858.00</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>4858.00</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>4375.50</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4397.50</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>4461.00</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>-422.00</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>10,623</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>17,838</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>4849.00</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>4890.50B</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>4423.50A</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4444.00A</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>4507.00</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>-425.50</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>1,162</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>8,241</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>4457.00A</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4457.00A</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>4540.00</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>-424.50</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>4536.50</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>4536.50</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>4485.00A</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4536.50A</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>4569.50</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>-424.50</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>4595.00</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>-424.50</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>4566.50A</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4566.50A</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>4634.50</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>-424.50</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>4714.50</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>-441.00</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>4803.00</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>-449.00</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>4930.00A</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4930.00A</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>4890.00</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>-457.00</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>AUG 25</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>4363.50</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>4622.50</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>4314.00</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4597.00A</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>4602.50</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>+174.00</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>20,306</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>12,592</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>4400.00</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>4656.00</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>4347.00</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4626.00B</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>4636.00</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>+175.00</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>13,074</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>17,728</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>4510.50</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>4696.50B</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>4397.50A</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4682.50B</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>4681.50</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>+174.50</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>2,099</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>10,560</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>4707.00B</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>4430.50A</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4430.50A</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>4714.00</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>+174.00</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>4740.00B</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>4460.50A</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4460.50A</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>4743.50</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>+174.00</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>4769.00</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>+174.00</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>4810.50B</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>4543.00A</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4543.00A</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>4814.00</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>+179.50</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>4906.00</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>+191.50</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>4997.50</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>+194.50</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>5088.50</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>+198.50</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>AUG 25</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>4617.00</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>4668.50B</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>4514.50A</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4597.00</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>4571.00</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>-31.50</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>12,815</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>8,902</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>4650.00</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>4702.00</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>4549.50A</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4630.50A</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>4604.50</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>-31.50</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>9,894</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>20,275</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>4654.00</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>4747.00B</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>4599.50A</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4631.50B</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>4651.50</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>-30.00</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>2,274</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>14,466</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>4760.50B</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>4641.50A</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4641.50A</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>4684.00</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>-30.00</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>4801.00B</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>4680.00A</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4680.00A</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>4713.50</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>-30.00</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>4739.00</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>-30.00</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>4796.00</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>4871.50B</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>4771.50A</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4796.00B</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>4779.50</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>-34.50</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>4871.00</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>-35.00</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>4962.00</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>-35.50</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>5052.00</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>-36.50</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>AUG 25</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>4527.00</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>4639.00</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>4435.00</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4462.00A</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>4453.50</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>-117.50</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>11,758</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>4,656</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>4557.00</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>4671.00</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>4456.00</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4457.00B</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>4476.50</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>-128.00</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>10,210</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>21,640</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>4597.00</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>4711.00B</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>4499.00A</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4510.00B</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>4514.00</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>-137.50</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>17,829</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>4726.50B</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>4540.50A</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4540.50A</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>4546.00</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>-138.00</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>4766.50B</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>4578.00A</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>4578.00A</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>4576.50</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>-137.00</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>4602.00</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>-137.00</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>4840.50B</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>4672.00A</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4672.00A</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>4655.00</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>-124.50</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>4744.00</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>-127.00</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>4832.50</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>-129.50</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>4920.50</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>-131.50</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>AUG 25</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>4492.00</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>4517.50B</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>4265.50</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>4298.50B</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>4299.82</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>-153.68</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>1,771</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>2,340</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>4512.50</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>4543.50B</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>4289.50</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>4338.00</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>4362.50</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>-114.00</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>14,538</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>22,552</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>4563.00</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>4579.50B</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>4325.50</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>4375.50B</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>4397.50</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>-116.50</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>1,704</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>16,767</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>4608.00B</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>4364.00A</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>4608.00B</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>4428.00</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>-118.00</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>4612.00</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>4638.50B</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>4407.00A</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>4455.00A</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>4457.50</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>-119.00</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>4476.00A</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>4476.00A</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>4488.00</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>-114.00</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>4518.50</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>4709.00B</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>4496.00A</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>4709.00B</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>4541.00</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>-114.00</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>4627.50</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>-116.50</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>4714.00</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>-118.50</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>4825.50A</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4825.50A</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>4800.00</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>-120.50</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/data_raw/CME_ETH_Future_latest.xlsx
+++ b/data_raw/CME_ETH_Future_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J242"/>
+  <dimension ref="A1:J292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10644,15 +10644,11 @@
           <t>4325.00B</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>4284.50</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>-78.00</t>
-        </is>
+      <c r="G213" t="n">
+        <v>4284.5</v>
+      </c>
+      <c r="H213" t="n">
+        <v>-78</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
@@ -10696,15 +10692,11 @@
           <t>4357.00B</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>4318.00</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>-79.50</t>
-        </is>
+      <c r="G214" t="n">
+        <v>4318</v>
+      </c>
+      <c r="H214" t="n">
+        <v>-79.5</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
@@ -10748,15 +10740,11 @@
           <t>4384.00B</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>4347.00</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>-81.00</t>
-        </is>
+      <c r="G215" t="n">
+        <v>4347</v>
+      </c>
+      <c r="H215" t="n">
+        <v>-81</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
@@ -10800,15 +10788,11 @@
           <t>4410.00B</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>4372.00</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>-85.50</t>
-        </is>
+      <c r="G216" t="n">
+        <v>4372</v>
+      </c>
+      <c r="H216" t="n">
+        <v>-85.5</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
@@ -10852,15 +10836,11 @@
           <t>4518.00B</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>4407.00</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>-81.00</t>
-        </is>
+      <c r="G217" t="n">
+        <v>4407</v>
+      </c>
+      <c r="H217" t="n">
+        <v>-81</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
@@ -10904,15 +10884,11 @@
           <t>4524.00B</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>4439.00</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>-79.50</t>
-        </is>
+      <c r="G218" t="n">
+        <v>4439</v>
+      </c>
+      <c r="H218" t="n">
+        <v>-79.5</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
@@ -10956,15 +10932,11 @@
           <t>4618.00B</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>4465.50</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>-75.50</t>
-        </is>
+      <c r="G219" t="n">
+        <v>4465.5</v>
+      </c>
+      <c r="H219" t="n">
+        <v>-75.5</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
@@ -11008,15 +10980,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>4550.50</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>-77.00</t>
-        </is>
+      <c r="G220" t="n">
+        <v>4550.5</v>
+      </c>
+      <c r="H220" t="n">
+        <v>-77</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
@@ -11060,15 +11028,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>4636.00</t>
-        </is>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>-78.00</t>
-        </is>
+      <c r="G221" t="n">
+        <v>4636</v>
+      </c>
+      <c r="H221" t="n">
+        <v>-78</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
@@ -11112,15 +11076,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>4720.00</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>-80.00</t>
-        </is>
+      <c r="G222" t="n">
+        <v>4720</v>
+      </c>
+      <c r="H222" t="n">
+        <v>-80</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
@@ -11164,15 +11124,11 @@
           <t>4488.50</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>4497.50</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>+213.00</t>
-        </is>
+      <c r="G223" t="n">
+        <v>4497.5</v>
+      </c>
+      <c r="H223" t="n">
+        <v>213</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
@@ -11216,15 +11172,11 @@
           <t>4530.00A</t>
         </is>
       </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>4534.50</t>
-        </is>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>+216.50</t>
-        </is>
+      <c r="G224" t="n">
+        <v>4534.5</v>
+      </c>
+      <c r="H224" t="n">
+        <v>216.5</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
@@ -11268,15 +11220,11 @@
           <t>4565.00A</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>4564.50</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>+217.50</t>
-        </is>
+      <c r="G225" t="n">
+        <v>4564.5</v>
+      </c>
+      <c r="H225" t="n">
+        <v>217.5</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
@@ -11320,15 +11268,11 @@
           <t>4550.00B</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>4588.50</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>+216.50</t>
-        </is>
+      <c r="G226" t="n">
+        <v>4588.5</v>
+      </c>
+      <c r="H226" t="n">
+        <v>216.5</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
@@ -11372,15 +11316,11 @@
           <t>4607.50B</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>4622.00</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>+215.00</t>
-        </is>
+      <c r="G227" t="n">
+        <v>4622</v>
+      </c>
+      <c r="H227" t="n">
+        <v>215</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
@@ -11424,15 +11364,11 @@
           <t>4510.50B</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>4649.50</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>+210.50</t>
-        </is>
+      <c r="G228" t="n">
+        <v>4649.5</v>
+      </c>
+      <c r="H228" t="n">
+        <v>210.5</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
@@ -11476,15 +11412,11 @@
           <t>4664.00B</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>4677.00</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>+211.50</t>
-        </is>
+      <c r="G229" t="n">
+        <v>4677</v>
+      </c>
+      <c r="H229" t="n">
+        <v>211.5</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
@@ -11528,15 +11460,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>4766.00</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>+215.50</t>
-        </is>
+      <c r="G230" t="n">
+        <v>4766</v>
+      </c>
+      <c r="H230" t="n">
+        <v>215.5</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
@@ -11580,15 +11508,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>4855.50</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>+219.50</t>
-        </is>
+      <c r="G231" t="n">
+        <v>4855.5</v>
+      </c>
+      <c r="H231" t="n">
+        <v>219.5</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
@@ -11632,15 +11556,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>4943.50</t>
-        </is>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>+223.50</t>
-        </is>
+      <c r="G232" t="n">
+        <v>4943.5</v>
+      </c>
+      <c r="H232" t="n">
+        <v>223.5</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
@@ -11684,15 +11604,11 @@
           <t>4321.50A</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>4290.00</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>-207.50</t>
-        </is>
+      <c r="G233" t="n">
+        <v>4290</v>
+      </c>
+      <c r="H233" t="n">
+        <v>-207.5</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
@@ -11736,15 +11652,11 @@
           <t>4357.50</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>4324.00</t>
-        </is>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>-210.50</t>
-        </is>
+      <c r="G234" t="n">
+        <v>4324</v>
+      </c>
+      <c r="H234" t="n">
+        <v>-210.5</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
@@ -11788,15 +11700,11 @@
           <t>4353.50A</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>4354.50</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>-210.00</t>
-        </is>
+      <c r="G235" t="n">
+        <v>4354.5</v>
+      </c>
+      <c r="H235" t="n">
+        <v>-210</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
@@ -11840,15 +11748,11 @@
           <t>4400.00B</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>4380.00</t>
-        </is>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>-208.50</t>
-        </is>
+      <c r="G236" t="n">
+        <v>4380</v>
+      </c>
+      <c r="H236" t="n">
+        <v>-208.5</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
@@ -11892,15 +11796,11 @@
           <t>4414.00A</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>4414.50</t>
-        </is>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>-207.50</t>
-        </is>
+      <c r="G237" t="n">
+        <v>4414.5</v>
+      </c>
+      <c r="H237" t="n">
+        <v>-207.5</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
@@ -11944,15 +11844,11 @@
           <t>4463.50A</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>4444.50</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>-205.00</t>
-        </is>
+      <c r="G238" t="n">
+        <v>4444.5</v>
+      </c>
+      <c r="H238" t="n">
+        <v>-205</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
@@ -11996,15 +11892,11 @@
           <t>4468.50A</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>4471.00</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>-206.00</t>
-        </is>
+      <c r="G239" t="n">
+        <v>4471</v>
+      </c>
+      <c r="H239" t="n">
+        <v>-206</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
@@ -12048,15 +11940,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>4556.00</t>
-        </is>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>-210.00</t>
-        </is>
+      <c r="G240" t="n">
+        <v>4556</v>
+      </c>
+      <c r="H240" t="n">
+        <v>-210</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
@@ -12100,15 +11988,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>4641.50</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>-214.00</t>
-        </is>
+      <c r="G241" t="n">
+        <v>4641.5</v>
+      </c>
+      <c r="H241" t="n">
+        <v>-214</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
@@ -12152,15 +12036,11 @@
           <t>4807.50A</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>4726.00</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>-217.50</t>
-        </is>
+      <c r="G242" t="n">
+        <v>4726</v>
+      </c>
+      <c r="H242" t="n">
+        <v>-217.5</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
@@ -12168,6 +12048,2606 @@
         </is>
       </c>
       <c r="J242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>4329.50</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>4510.50</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>4262.50</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>4355.00B</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>4346.00</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>+56.00</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>18,602</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>21,859</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>4371.50</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>4538.50B</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>4298.00A</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>4393.00A</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>4381.00</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>+57.00</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>1,809</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>15,180</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>4484.00</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>4562.00B</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>4332.00A</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>4355.00A</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>4411.00</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>+56.50</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>4440.00</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>4588.50B</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>4366.50A</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>4540.00B</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>4435.50</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>+55.50</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>4600.50B</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>4400.00A</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>4600.50B</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>4469.00</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>+54.50</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>4605.00B</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>4605.00B</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>4495.50</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>+51.00</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>4656.00B</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>4454.50A</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>4656.00B</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>4522.00</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>+51.00</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>4608.50</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>+52.50</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>4695.00</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>+53.50</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>4780.00</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>+54.00</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>4306.50</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>4401.50</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>4292.00</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>4311.50</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>4301.50</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>-44.50</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>10,681</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>21,692</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>4347.50</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>4435.50B</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>4320.00</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>4348.50A</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>4335.50</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>-45.50</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>2,463</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>15,406</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>4462.00B</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>4355.50A</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>4355.50A</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>4365.00</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>-46.00</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>4454.50B</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>4400.00A</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>4400.00A</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>4391.50</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>-44.00</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>4431.50A</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>4431.50A</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>4423.50</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>-45.50</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>4475.00A</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>4475.00A</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>4451.00</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>-44.50</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>4486.50A</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>4486.50A</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>4477.50</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>-44.50</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>4563.00</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>-45.50</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>4648.50</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>-46.50</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>4733.50</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>-46.50</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>4332.00</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>4401.50</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>4285.50</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>4315.50A</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>4306.00</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>+4.50</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>12,110</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>21,265</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>4367.00</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>4434.50</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>4321.00A</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>4343.00B</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>4340.00</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>+4.50</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>1,875</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>15,670</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>4440.00</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>4459.50B</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>4354.50A</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>4440.00A</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>4370.00</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>+5.00</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>4457.50B</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>4457.50B</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>4396.00</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>+4.50</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>4468.00B</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>4468.00B</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>4427.50</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>+4.00</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>4473.50B</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>4473.50B</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>4456.00</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>+5.00</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>4523.00B</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>4523.00B</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>4482.50</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>+5.00</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>4568.00</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>+5.00</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>4654.00</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>+5.50</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>4738.50</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>+5.00</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>4314.50</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>4472.50</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>4295.50</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>4347.00A</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>4333.00</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>+27.00</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>16,187</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>21,009</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>4347.50</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>4506.00B</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>4329.50A</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>4388.00A</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>4367.00</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>+27.00</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>2,578</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>15,732</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>4465.50</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>4532.50B</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>4362.50A</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>4396.00B</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>4396.50</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>+26.50</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>4554.00B</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>4554.00B</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>4425.00</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>+29.00</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>4565.50B</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>4565.50B</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>4456.50</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>+29.00</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>4571.50B</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>4571.50B</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>4484.50</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>+28.50</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>4622.00B</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>4622.00B</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>4511.00</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>+28.50</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>4597.50</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>+29.50</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>4683.50</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>+29.50</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>4769.00</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>+30.50</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4360.50</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>4511.00</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4348.50</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>4433.50A</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>4443.00</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>+110.00</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>11,982</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>19,910</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>4394.00</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>4524.00</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>4383.50</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>4469.00A</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>4478.00</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>+111.00</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>2,218</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>15,847</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>4515.00</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>4552.00B</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>4467.50</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>4467.50B</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>4509.00</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>+112.50</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>4500.00</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>4544.00B</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>4500.00</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>4500.00B</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>4534.00</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>+109.00</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>4554.50B</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>4554.50B</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>4563.00</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>+106.50</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>4560.50B</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>4560.50B</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>4590.00</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>+105.50</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>4611.00B</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>4611.00B</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>4617.50</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>+106.50</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>4705.50</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>+108.00</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>4794.00</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>+110.50</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>4881.50</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>+112.50</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/data_raw/CME_ETH_Future_latest.xlsx
+++ b/data_raw/CME_ETH_Future_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J292"/>
+  <dimension ref="A1:J332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12084,15 +12084,11 @@
           <t>4355.00B</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>4346.00</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>+56.00</t>
-        </is>
+      <c r="G243" t="n">
+        <v>4346</v>
+      </c>
+      <c r="H243" t="n">
+        <v>56</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
@@ -12136,15 +12132,11 @@
           <t>4393.00A</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>4381.00</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>+57.00</t>
-        </is>
+      <c r="G244" t="n">
+        <v>4381</v>
+      </c>
+      <c r="H244" t="n">
+        <v>57</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
@@ -12188,15 +12180,11 @@
           <t>4355.00A</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>4411.00</t>
-        </is>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>+56.50</t>
-        </is>
+      <c r="G245" t="n">
+        <v>4411</v>
+      </c>
+      <c r="H245" t="n">
+        <v>56.5</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
@@ -12240,15 +12228,11 @@
           <t>4540.00B</t>
         </is>
       </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>4435.50</t>
-        </is>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>+55.50</t>
-        </is>
+      <c r="G246" t="n">
+        <v>4435.5</v>
+      </c>
+      <c r="H246" t="n">
+        <v>55.5</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
@@ -12292,15 +12276,11 @@
           <t>4600.50B</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>4469.00</t>
-        </is>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>+54.50</t>
-        </is>
+      <c r="G247" t="n">
+        <v>4469</v>
+      </c>
+      <c r="H247" t="n">
+        <v>54.5</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
@@ -12344,15 +12324,11 @@
           <t>4605.00B</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>4495.50</t>
-        </is>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>+51.00</t>
-        </is>
+      <c r="G248" t="n">
+        <v>4495.5</v>
+      </c>
+      <c r="H248" t="n">
+        <v>51</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
@@ -12396,15 +12372,11 @@
           <t>4656.00B</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>4522.00</t>
-        </is>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>+51.00</t>
-        </is>
+      <c r="G249" t="n">
+        <v>4522</v>
+      </c>
+      <c r="H249" t="n">
+        <v>51</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
@@ -12448,15 +12420,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>4608.50</t>
-        </is>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>+52.50</t>
-        </is>
+      <c r="G250" t="n">
+        <v>4608.5</v>
+      </c>
+      <c r="H250" t="n">
+        <v>52.5</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
@@ -12500,15 +12468,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>4695.00</t>
-        </is>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>+53.50</t>
-        </is>
+      <c r="G251" t="n">
+        <v>4695</v>
+      </c>
+      <c r="H251" t="n">
+        <v>53.5</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
@@ -12552,15 +12516,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>4780.00</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>+54.00</t>
-        </is>
+      <c r="G252" t="n">
+        <v>4780</v>
+      </c>
+      <c r="H252" t="n">
+        <v>54</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
@@ -12604,15 +12564,11 @@
           <t>4311.50</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>4301.50</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>-44.50</t>
-        </is>
+      <c r="G253" t="n">
+        <v>4301.5</v>
+      </c>
+      <c r="H253" t="n">
+        <v>-44.5</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
@@ -12656,15 +12612,11 @@
           <t>4348.50A</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>4335.50</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>-45.50</t>
-        </is>
+      <c r="G254" t="n">
+        <v>4335.5</v>
+      </c>
+      <c r="H254" t="n">
+        <v>-45.5</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>
@@ -12708,15 +12660,11 @@
           <t>4355.50A</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>4365.00</t>
-        </is>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>-46.00</t>
-        </is>
+      <c r="G255" t="n">
+        <v>4365</v>
+      </c>
+      <c r="H255" t="n">
+        <v>-46</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
@@ -12760,15 +12708,11 @@
           <t>4400.00A</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>4391.50</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>-44.00</t>
-        </is>
+      <c r="G256" t="n">
+        <v>4391.5</v>
+      </c>
+      <c r="H256" t="n">
+        <v>-44</v>
       </c>
       <c r="I256" t="inlineStr">
         <is>
@@ -12812,15 +12756,11 @@
           <t>4431.50A</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>4423.50</t>
-        </is>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>-45.50</t>
-        </is>
+      <c r="G257" t="n">
+        <v>4423.5</v>
+      </c>
+      <c r="H257" t="n">
+        <v>-45.5</v>
       </c>
       <c r="I257" t="inlineStr">
         <is>
@@ -12864,15 +12804,11 @@
           <t>4475.00A</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>4451.00</t>
-        </is>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>-44.50</t>
-        </is>
+      <c r="G258" t="n">
+        <v>4451</v>
+      </c>
+      <c r="H258" t="n">
+        <v>-44.5</v>
       </c>
       <c r="I258" t="inlineStr">
         <is>
@@ -12916,15 +12852,11 @@
           <t>4486.50A</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>4477.50</t>
-        </is>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>-44.50</t>
-        </is>
+      <c r="G259" t="n">
+        <v>4477.5</v>
+      </c>
+      <c r="H259" t="n">
+        <v>-44.5</v>
       </c>
       <c r="I259" t="inlineStr">
         <is>
@@ -12968,15 +12900,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>4563.00</t>
-        </is>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>-45.50</t>
-        </is>
+      <c r="G260" t="n">
+        <v>4563</v>
+      </c>
+      <c r="H260" t="n">
+        <v>-45.5</v>
       </c>
       <c r="I260" t="inlineStr">
         <is>
@@ -13020,15 +12948,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>4648.50</t>
-        </is>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>-46.50</t>
-        </is>
+      <c r="G261" t="n">
+        <v>4648.5</v>
+      </c>
+      <c r="H261" t="n">
+        <v>-46.5</v>
       </c>
       <c r="I261" t="inlineStr">
         <is>
@@ -13072,15 +12996,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>4733.50</t>
-        </is>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>-46.50</t>
-        </is>
+      <c r="G262" t="n">
+        <v>4733.5</v>
+      </c>
+      <c r="H262" t="n">
+        <v>-46.5</v>
       </c>
       <c r="I262" t="inlineStr">
         <is>
@@ -13124,15 +13044,11 @@
           <t>4315.50A</t>
         </is>
       </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>4306.00</t>
-        </is>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>+4.50</t>
-        </is>
+      <c r="G263" t="n">
+        <v>4306</v>
+      </c>
+      <c r="H263" t="n">
+        <v>4.5</v>
       </c>
       <c r="I263" t="inlineStr">
         <is>
@@ -13176,15 +13092,11 @@
           <t>4343.00B</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>4340.00</t>
-        </is>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>+4.50</t>
-        </is>
+      <c r="G264" t="n">
+        <v>4340</v>
+      </c>
+      <c r="H264" t="n">
+        <v>4.5</v>
       </c>
       <c r="I264" t="inlineStr">
         <is>
@@ -13228,15 +13140,11 @@
           <t>4440.00A</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>4370.00</t>
-        </is>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>+5.00</t>
-        </is>
+      <c r="G265" t="n">
+        <v>4370</v>
+      </c>
+      <c r="H265" t="n">
+        <v>5</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
@@ -13280,15 +13188,11 @@
           <t>4457.50B</t>
         </is>
       </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>4396.00</t>
-        </is>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>+4.50</t>
-        </is>
+      <c r="G266" t="n">
+        <v>4396</v>
+      </c>
+      <c r="H266" t="n">
+        <v>4.5</v>
       </c>
       <c r="I266" t="inlineStr">
         <is>
@@ -13332,15 +13236,11 @@
           <t>4468.00B</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>4427.50</t>
-        </is>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>+4.00</t>
-        </is>
+      <c r="G267" t="n">
+        <v>4427.5</v>
+      </c>
+      <c r="H267" t="n">
+        <v>4</v>
       </c>
       <c r="I267" t="inlineStr">
         <is>
@@ -13384,15 +13284,11 @@
           <t>4473.50B</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>4456.00</t>
-        </is>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>+5.00</t>
-        </is>
+      <c r="G268" t="n">
+        <v>4456</v>
+      </c>
+      <c r="H268" t="n">
+        <v>5</v>
       </c>
       <c r="I268" t="inlineStr">
         <is>
@@ -13436,15 +13332,11 @@
           <t>4523.00B</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>4482.50</t>
-        </is>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>+5.00</t>
-        </is>
+      <c r="G269" t="n">
+        <v>4482.5</v>
+      </c>
+      <c r="H269" t="n">
+        <v>5</v>
       </c>
       <c r="I269" t="inlineStr">
         <is>
@@ -13488,15 +13380,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>4568.00</t>
-        </is>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>+5.00</t>
-        </is>
+      <c r="G270" t="n">
+        <v>4568</v>
+      </c>
+      <c r="H270" t="n">
+        <v>5</v>
       </c>
       <c r="I270" t="inlineStr">
         <is>
@@ -13540,15 +13428,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>4654.00</t>
-        </is>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>+5.50</t>
-        </is>
+      <c r="G271" t="n">
+        <v>4654</v>
+      </c>
+      <c r="H271" t="n">
+        <v>5.5</v>
       </c>
       <c r="I271" t="inlineStr">
         <is>
@@ -13592,15 +13476,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>4738.50</t>
-        </is>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>+5.00</t>
-        </is>
+      <c r="G272" t="n">
+        <v>4738.5</v>
+      </c>
+      <c r="H272" t="n">
+        <v>5</v>
       </c>
       <c r="I272" t="inlineStr">
         <is>
@@ -13644,15 +13524,11 @@
           <t>4347.00A</t>
         </is>
       </c>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>4333.00</t>
-        </is>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>+27.00</t>
-        </is>
+      <c r="G273" t="n">
+        <v>4333</v>
+      </c>
+      <c r="H273" t="n">
+        <v>27</v>
       </c>
       <c r="I273" t="inlineStr">
         <is>
@@ -13696,15 +13572,11 @@
           <t>4388.00A</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>4367.00</t>
-        </is>
-      </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>+27.00</t>
-        </is>
+      <c r="G274" t="n">
+        <v>4367</v>
+      </c>
+      <c r="H274" t="n">
+        <v>27</v>
       </c>
       <c r="I274" t="inlineStr">
         <is>
@@ -13748,15 +13620,11 @@
           <t>4396.00B</t>
         </is>
       </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>4396.50</t>
-        </is>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>+26.50</t>
-        </is>
+      <c r="G275" t="n">
+        <v>4396.5</v>
+      </c>
+      <c r="H275" t="n">
+        <v>26.5</v>
       </c>
       <c r="I275" t="inlineStr">
         <is>
@@ -13800,15 +13668,11 @@
           <t>4554.00B</t>
         </is>
       </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>4425.00</t>
-        </is>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>+29.00</t>
-        </is>
+      <c r="G276" t="n">
+        <v>4425</v>
+      </c>
+      <c r="H276" t="n">
+        <v>29</v>
       </c>
       <c r="I276" t="inlineStr">
         <is>
@@ -13852,15 +13716,11 @@
           <t>4565.50B</t>
         </is>
       </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>4456.50</t>
-        </is>
-      </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>+29.00</t>
-        </is>
+      <c r="G277" t="n">
+        <v>4456.5</v>
+      </c>
+      <c r="H277" t="n">
+        <v>29</v>
       </c>
       <c r="I277" t="inlineStr">
         <is>
@@ -13904,15 +13764,11 @@
           <t>4571.50B</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>4484.50</t>
-        </is>
-      </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>+28.50</t>
-        </is>
+      <c r="G278" t="n">
+        <v>4484.5</v>
+      </c>
+      <c r="H278" t="n">
+        <v>28.5</v>
       </c>
       <c r="I278" t="inlineStr">
         <is>
@@ -13956,15 +13812,11 @@
           <t>4622.00B</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>4511.00</t>
-        </is>
-      </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>+28.50</t>
-        </is>
+      <c r="G279" t="n">
+        <v>4511</v>
+      </c>
+      <c r="H279" t="n">
+        <v>28.5</v>
       </c>
       <c r="I279" t="inlineStr">
         <is>
@@ -14008,15 +13860,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>4597.50</t>
-        </is>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>+29.50</t>
-        </is>
+      <c r="G280" t="n">
+        <v>4597.5</v>
+      </c>
+      <c r="H280" t="n">
+        <v>29.5</v>
       </c>
       <c r="I280" t="inlineStr">
         <is>
@@ -14060,15 +13908,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>4683.50</t>
-        </is>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>+29.50</t>
-        </is>
+      <c r="G281" t="n">
+        <v>4683.5</v>
+      </c>
+      <c r="H281" t="n">
+        <v>29.5</v>
       </c>
       <c r="I281" t="inlineStr">
         <is>
@@ -14112,15 +13956,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>4769.00</t>
-        </is>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>+30.50</t>
-        </is>
+      <c r="G282" t="n">
+        <v>4769</v>
+      </c>
+      <c r="H282" t="n">
+        <v>30.5</v>
       </c>
       <c r="I282" t="inlineStr">
         <is>
@@ -14164,15 +14004,11 @@
           <t>4433.50A</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>4443.00</t>
-        </is>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>+110.00</t>
-        </is>
+      <c r="G283" t="n">
+        <v>4443</v>
+      </c>
+      <c r="H283" t="n">
+        <v>110</v>
       </c>
       <c r="I283" t="inlineStr">
         <is>
@@ -14216,15 +14052,11 @@
           <t>4469.00A</t>
         </is>
       </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>4478.00</t>
-        </is>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>+111.00</t>
-        </is>
+      <c r="G284" t="n">
+        <v>4478</v>
+      </c>
+      <c r="H284" t="n">
+        <v>111</v>
       </c>
       <c r="I284" t="inlineStr">
         <is>
@@ -14268,15 +14100,11 @@
           <t>4467.50B</t>
         </is>
       </c>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>4509.00</t>
-        </is>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>+112.50</t>
-        </is>
+      <c r="G285" t="n">
+        <v>4509</v>
+      </c>
+      <c r="H285" t="n">
+        <v>112.5</v>
       </c>
       <c r="I285" t="inlineStr">
         <is>
@@ -14320,15 +14148,11 @@
           <t>4500.00B</t>
         </is>
       </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>4534.00</t>
-        </is>
-      </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>+109.00</t>
-        </is>
+      <c r="G286" t="n">
+        <v>4534</v>
+      </c>
+      <c r="H286" t="n">
+        <v>109</v>
       </c>
       <c r="I286" t="inlineStr">
         <is>
@@ -14372,15 +14196,11 @@
           <t>4554.50B</t>
         </is>
       </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>4563.00</t>
-        </is>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>+106.50</t>
-        </is>
+      <c r="G287" t="n">
+        <v>4563</v>
+      </c>
+      <c r="H287" t="n">
+        <v>106.5</v>
       </c>
       <c r="I287" t="inlineStr">
         <is>
@@ -14424,15 +14244,11 @@
           <t>4560.50B</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>4590.00</t>
-        </is>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>+105.50</t>
-        </is>
+      <c r="G288" t="n">
+        <v>4590</v>
+      </c>
+      <c r="H288" t="n">
+        <v>105.5</v>
       </c>
       <c r="I288" t="inlineStr">
         <is>
@@ -14476,15 +14292,11 @@
           <t>4611.00B</t>
         </is>
       </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>4617.50</t>
-        </is>
-      </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>+106.50</t>
-        </is>
+      <c r="G289" t="n">
+        <v>4617.5</v>
+      </c>
+      <c r="H289" t="n">
+        <v>106.5</v>
       </c>
       <c r="I289" t="inlineStr">
         <is>
@@ -14528,15 +14340,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>4705.50</t>
-        </is>
-      </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>+108.00</t>
-        </is>
+      <c r="G290" t="n">
+        <v>4705.5</v>
+      </c>
+      <c r="H290" t="n">
+        <v>108</v>
       </c>
       <c r="I290" t="inlineStr">
         <is>
@@ -14580,15 +14388,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>4794.00</t>
-        </is>
-      </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>+110.50</t>
-        </is>
+      <c r="G291" t="n">
+        <v>4794</v>
+      </c>
+      <c r="H291" t="n">
+        <v>110.5</v>
       </c>
       <c r="I291" t="inlineStr">
         <is>
@@ -14632,15 +14436,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>4881.50</t>
-        </is>
-      </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>+112.50</t>
-        </is>
+      <c r="G292" t="n">
+        <v>4881.5</v>
+      </c>
+      <c r="H292" t="n">
+        <v>112.5</v>
       </c>
       <c r="I292" t="inlineStr">
         <is>
@@ -14648,6 +14448,2086 @@
         </is>
       </c>
       <c r="J292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>4448.00</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>4721.50</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>4439.00</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>4702.50</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>4691.50</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>+248.50</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>13,401</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>18,660</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4500.00</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>4757.50B</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4476.00A</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>4746.50A</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>4730.00</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>+252.00</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>3,877</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>16,580</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>4605.50</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>4786.50B</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>4604.50</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>4764.00B</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>4764.50</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>+255.50</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>4670.00</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>4808.00B</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>4670.00</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>4670.00B</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>4792.50</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>+258.50</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>4818.50B</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>4818.50B</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>4818.50</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>+255.50</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>4824.50B</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>4824.50B</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>4842.50</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>+252.50</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>4878.00B</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>4878.00B</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>4865.50</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>+248.00</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>4958.00</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>+252.50</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>5051.00</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>+257.00</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>5143.00</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>+261.50</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>4657.00</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>4694.50</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>4479.00</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>4521.00B</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>4507.50</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>-184.00</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>13,897</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>19,962</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>4697.00</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>4729.50</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>4517.00A</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>4555.00B</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>4544.00</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>-186.00</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>3,260</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>17,763</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>4718.50</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>4759.50B</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>4554.50A</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>4580.00A</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>4579.50</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>-185.00</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>4650.00</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>4650.00</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>4590.50A</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>4645.00A</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>4608.50</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>-184.00</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>4623.50A</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>4623.50A</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>4634.50</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>-184.00</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>4676.00A</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>4676.00A</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>4658.50</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>-184.00</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>4680.50A</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>4680.50A</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>4684.50</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>-181.00</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>4774.00</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>-184.00</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>4864.00</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>-187.00</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>5035.50A</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>5035.50A</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>4952.50</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-190.50</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>4536.50</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>4552.50</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>4434.00</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>4512.00</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>4503.00</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-4.50</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>8,388</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>18,992</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>4567.50</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>4587.50</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>4470.00A</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>4544.00</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>4538.50</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-5.50</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>2,804</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>17,730</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>4526.00</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>4618.50B</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>4507.00A</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>4574.50A</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>4573.50</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-6.00</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>4579.00</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>4610.50B</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>4543.50A</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>4600.00A</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>4599.00</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-9.50</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>4576.50A</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>4576.50A</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>4626.50</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>-8.00</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>4628.50A</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>4628.50A</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>4654.00</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-4.50</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>4633.00A</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>4633.00A</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>4681.50</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>-3.00</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>4771.00</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-3.00</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>4861.00</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-3.00</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>4949.50</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-3.00</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>SEP 25</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>4518.50</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>4569.00</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>4425.00</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>4511.50B</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>4528.50</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>+25.50</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>15,411</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>18,679</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>OCT 25</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>4554.00</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>4603.50B</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>4465.00A</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>4547.00</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>4563.00</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>+24.50</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>4,671</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>17,969</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>NOV 25</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>4580.00</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>4634.50B</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>4501.00A</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>4597.50B</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>4597.50</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>+24.00</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>1,379</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>DEC 25</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>4620.00</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>4652.00B</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>4538.00A</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>4620.00B</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>4623.00</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>+24.00</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>JAN 26</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>4664.00B</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>4573.00A</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>4664.00B</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>4652.50</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>+26.00</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>FEB 26</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>4669.50B</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>4625.00A</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>4669.50B</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>4680.00</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>+26.00</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>MAR 26</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>4721.50B</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>4629.50A</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>4721.50B</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>4708.00</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>+26.50</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>JUN 26</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>4798.00</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>+27.00</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>SEP 26</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>4888.00</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>+27.00</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>DEC 26</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>4977.00</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>+27.50</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
         <is>
           <t>0</t>
         </is>
